--- a/Sep19/all_countries/Tables/region.xlsx
+++ b/Sep19/all_countries/Tables/region.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>M_ETR</t>
+  </si>
+  <si>
+    <t>M_PL</t>
   </si>
   <si>
     <t>GFA - Sales</t>
@@ -422,15 +425,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -459,228 +462,252 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>0.2074824943926783</v>
       </c>
       <c r="C2">
+        <v>106960237402</v>
+      </c>
+      <c r="D2">
         <v>-0.02529354684105227</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.5063074653023257</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>-0.1825987920066567</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.1745350238252809</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-0.01255745743707199</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.01322467995132901</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-0.06278728718536031</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.06612339975664437</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0.2437084349518669</v>
       </c>
       <c r="C3">
+        <v>137173931430</v>
+      </c>
+      <c r="D3">
         <v>4.065716031493718</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>3.252949102138616</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>3.167409281448177</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>2.621385951484488</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.01662407667619824</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-0.02279433705648725</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.08312038338099001</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.1139716852824373</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>0.2630953085654972</v>
       </c>
       <c r="C4">
+        <v>42119558332</v>
+      </c>
+      <c r="D4">
         <v>4.97140682615342</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>12.76949705018221</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>5.023489433862268</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>10.26230887606077</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.3612864857544049</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.7394863554507225</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1.806432428772025</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>3.697431777253615</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0.4871967761665448</v>
       </c>
       <c r="C5">
+        <v>9821205357</v>
+      </c>
+      <c r="D5">
         <v>-1.948501233539887</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-1.050452513703446</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-1.522364816508199</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-0.9190484969529736</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-0.7107018270130426</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-0.6671473285312826</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-3.553509135065215</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-3.335736642656416</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>0.2048529706690015</v>
       </c>
       <c r="C6">
+        <v>885447038872</v>
+      </c>
+      <c r="D6">
         <v>5.877433505740076</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>2.486314796390639</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>7.542234034231321</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>5.264053336782998</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>4.465091788871077</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>4.300625795639975</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>22.32545894435539</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>21.50312897819985</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>0.3411401792246058</v>
       </c>
       <c r="C7">
+        <v>12956669707</v>
+      </c>
+      <c r="D7">
         <v>-36.61245512519325</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>141.7916000605185</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-40.54096830998851</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>79.31230422512931</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>2.445856528199673</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>11.09828147919903</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>12.22928264099839</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>55.4914073959952</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>0.7923767904822003</v>
       </c>
       <c r="C8">
+        <v>3720464869</v>
+      </c>
+      <c r="D8">
         <v>2.836730341461924</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>4.41442843961129</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>6.956057632657537</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>8.015967845678176</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-0.0170520638543937</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.05946477526880756</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-0.08526031927196791</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.2973238763440369</v>
       </c>
     </row>

--- a/Sep19/all_countries/Tables/region.xlsx
+++ b/Sep19/all_countries/Tables/region.xlsx
@@ -28,16 +28,16 @@
     <t>GFA - Sales + Emp</t>
   </si>
   <si>
+    <t>IMF (20%) - Sales</t>
+  </si>
+  <si>
+    <t>IMF (20%) - Sales + Emp</t>
+  </si>
+  <si>
     <t>IMF - Sales</t>
   </si>
   <si>
     <t>IMF - Sales + Emp</t>
-  </si>
-  <si>
-    <t>OECD (20%) - Sales</t>
-  </si>
-  <si>
-    <t>OECD (20%) - Sales + Emp</t>
   </si>
   <si>
     <t>OECD - Sales</t>
@@ -483,16 +483,16 @@
         <v>0.5063074653023257</v>
       </c>
       <c r="F2">
+        <v>-0.0365197584013312</v>
+      </c>
+      <c r="G2">
+        <v>0.03490700476505619</v>
+      </c>
+      <c r="H2">
         <v>-0.1825987920066567</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>0.1745350238252809</v>
-      </c>
-      <c r="H2">
-        <v>-0.01255745743707199</v>
-      </c>
-      <c r="I2">
-        <v>0.01322467995132901</v>
       </c>
       <c r="J2">
         <v>-0.06278728718536031</v>
@@ -518,16 +518,16 @@
         <v>3.252949102138616</v>
       </c>
       <c r="F3">
+        <v>0.6334818562896358</v>
+      </c>
+      <c r="G3">
+        <v>0.5242771902968979</v>
+      </c>
+      <c r="H3">
         <v>3.167409281448177</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>2.621385951484488</v>
-      </c>
-      <c r="H3">
-        <v>0.01662407667619824</v>
-      </c>
-      <c r="I3">
-        <v>-0.02279433705648725</v>
       </c>
       <c r="J3">
         <v>0.08312038338099001</v>
@@ -553,16 +553,16 @@
         <v>12.76949705018221</v>
       </c>
       <c r="F4">
+        <v>1.004697886772454</v>
+      </c>
+      <c r="G4">
+        <v>2.052461775212154</v>
+      </c>
+      <c r="H4">
         <v>5.023489433862268</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>10.26230887606077</v>
-      </c>
-      <c r="H4">
-        <v>0.3612864857544049</v>
-      </c>
-      <c r="I4">
-        <v>0.7394863554507225</v>
       </c>
       <c r="J4">
         <v>1.806432428772025</v>
@@ -588,16 +588,16 @@
         <v>-1.050452513703446</v>
       </c>
       <c r="F5">
+        <v>-0.304472963301639</v>
+      </c>
+      <c r="G5">
+        <v>-0.1838096993905943</v>
+      </c>
+      <c r="H5">
         <v>-1.522364816508199</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>-0.9190484969529736</v>
-      </c>
-      <c r="H5">
-        <v>-0.7107018270130426</v>
-      </c>
-      <c r="I5">
-        <v>-0.6671473285312826</v>
       </c>
       <c r="J5">
         <v>-3.553509135065215</v>
@@ -623,16 +623,16 @@
         <v>2.486314796390639</v>
       </c>
       <c r="F6">
+        <v>1.508446806846264</v>
+      </c>
+      <c r="G6">
+        <v>1.052810667356595</v>
+      </c>
+      <c r="H6">
         <v>7.542234034231321</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>5.264053336782998</v>
-      </c>
-      <c r="H6">
-        <v>4.465091788871077</v>
-      </c>
-      <c r="I6">
-        <v>4.300625795639975</v>
       </c>
       <c r="J6">
         <v>22.32545894435539</v>
@@ -658,16 +658,16 @@
         <v>141.7916000605185</v>
       </c>
       <c r="F7">
+        <v>-8.108193661997705</v>
+      </c>
+      <c r="G7">
+        <v>15.86246084502586</v>
+      </c>
+      <c r="H7">
         <v>-40.54096830998851</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>79.31230422512931</v>
-      </c>
-      <c r="H7">
-        <v>2.445856528199673</v>
-      </c>
-      <c r="I7">
-        <v>11.09828147919903</v>
       </c>
       <c r="J7">
         <v>12.22928264099839</v>
@@ -693,16 +693,16 @@
         <v>4.41442843961129</v>
       </c>
       <c r="F8">
+        <v>1.391211526531508</v>
+      </c>
+      <c r="G8">
+        <v>1.603193569135634</v>
+      </c>
+      <c r="H8">
         <v>6.956057632657537</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>8.015967845678176</v>
-      </c>
-      <c r="H8">
-        <v>-0.0170520638543937</v>
-      </c>
-      <c r="I8">
-        <v>0.05946477526880756</v>
       </c>
       <c r="J8">
         <v>-0.08526031927196791</v>

--- a/Sep19/all_countries/Tables/region.xlsx
+++ b/Sep19/all_countries/Tables/region.xlsx
@@ -28,16 +28,16 @@
     <t>GFA - Sales + Emp</t>
   </si>
   <si>
-    <t>IMF (20%) - Sales</t>
-  </si>
-  <si>
-    <t>IMF (20%) - Sales + Emp</t>
-  </si>
-  <si>
     <t>IMF - Sales</t>
   </si>
   <si>
     <t>IMF - Sales + Emp</t>
+  </si>
+  <si>
+    <t>OECD (20%) - Sales</t>
+  </si>
+  <si>
+    <t>OECD (20%) - Sales + Emp</t>
   </si>
   <si>
     <t>OECD - Sales</t>
@@ -483,22 +483,22 @@
         <v>0.5063074653023257</v>
       </c>
       <c r="F2">
-        <v>-0.0365197584013312</v>
+        <v>-0.1825987920066567</v>
       </c>
       <c r="G2">
-        <v>0.03490700476505619</v>
+        <v>0.1745350238252809</v>
       </c>
       <c r="H2">
-        <v>-0.1825987920066567</v>
+        <v>-0.003398481452414124</v>
       </c>
       <c r="I2">
-        <v>0.1745350238252809</v>
+        <v>0.06802828171397331</v>
       </c>
       <c r="J2">
-        <v>-0.06278728718536031</v>
+        <v>-0.01699240726207028</v>
       </c>
       <c r="K2">
-        <v>0.06612339975664437</v>
+        <v>0.3401414085698674</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -518,22 +518,22 @@
         <v>3.252949102138616</v>
       </c>
       <c r="F3">
-        <v>0.6334818562896358</v>
+        <v>3.167409281448177</v>
       </c>
       <c r="G3">
-        <v>0.5242771902968979</v>
+        <v>2.621385951484488</v>
       </c>
       <c r="H3">
-        <v>3.167409281448177</v>
+        <v>0.5462761158268117</v>
       </c>
       <c r="I3">
-        <v>2.621385951484488</v>
+        <v>0.437071449834074</v>
       </c>
       <c r="J3">
-        <v>0.08312038338099001</v>
+        <v>2.731380579134062</v>
       </c>
       <c r="K3">
-        <v>-0.1139716852824373</v>
+        <v>2.185357249170372</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -553,22 +553,22 @@
         <v>12.76949705018221</v>
       </c>
       <c r="F4">
-        <v>1.004697886772454</v>
+        <v>5.023489433862268</v>
       </c>
       <c r="G4">
-        <v>2.052461775212154</v>
+        <v>10.26230887606077</v>
       </c>
       <c r="H4">
-        <v>5.023489433862268</v>
+        <v>0.6679661811472452</v>
       </c>
       <c r="I4">
-        <v>10.26230887606077</v>
+        <v>1.715730069586945</v>
       </c>
       <c r="J4">
-        <v>1.806432428772025</v>
+        <v>3.339830905736226</v>
       </c>
       <c r="K4">
-        <v>3.697431777253615</v>
+        <v>8.578650347934726</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -588,22 +588,22 @@
         <v>-1.050452513703446</v>
       </c>
       <c r="F5">
-        <v>-0.304472963301639</v>
+        <v>-1.522364816508199</v>
       </c>
       <c r="G5">
-        <v>-0.1838096993905943</v>
+        <v>-0.9190484969529736</v>
       </c>
       <c r="H5">
-        <v>-1.522364816508199</v>
+        <v>-0.2618037455879232</v>
       </c>
       <c r="I5">
-        <v>-0.9190484969529736</v>
+        <v>-0.1411404816768782</v>
       </c>
       <c r="J5">
-        <v>-3.553509135065215</v>
+        <v>-1.309018727939617</v>
       </c>
       <c r="K5">
-        <v>-3.335736642656416</v>
+        <v>-0.7057024083843925</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -623,22 +623,22 @@
         <v>2.486314796390639</v>
       </c>
       <c r="F6">
-        <v>1.508446806846264</v>
+        <v>7.542234034231321</v>
       </c>
       <c r="G6">
-        <v>1.052810667356595</v>
+        <v>5.264053336782998</v>
       </c>
       <c r="H6">
-        <v>7.542234034231321</v>
+        <v>0.7897013765042615</v>
       </c>
       <c r="I6">
-        <v>5.264053336782998</v>
+        <v>0.3340652370145926</v>
       </c>
       <c r="J6">
-        <v>22.32545894435539</v>
+        <v>3.948506882521332</v>
       </c>
       <c r="K6">
-        <v>21.50312897819985</v>
+        <v>1.670326185072986</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -658,22 +658,22 @@
         <v>141.7916000605185</v>
       </c>
       <c r="F7">
-        <v>-8.108193661997705</v>
+        <v>-40.54096830998851</v>
       </c>
       <c r="G7">
-        <v>15.86246084502586</v>
+        <v>79.31230422512931</v>
       </c>
       <c r="H7">
-        <v>-40.54096830998851</v>
+        <v>-4.919308092780396</v>
       </c>
       <c r="I7">
-        <v>79.31230422512931</v>
+        <v>19.05134641424317</v>
       </c>
       <c r="J7">
-        <v>12.22928264099839</v>
+        <v>-24.59654046390198</v>
       </c>
       <c r="K7">
-        <v>55.4914073959952</v>
+        <v>95.25673207121591</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -693,22 +693,22 @@
         <v>4.41442843961129</v>
       </c>
       <c r="F8">
-        <v>1.391211526531508</v>
+        <v>6.956057632657537</v>
       </c>
       <c r="G8">
-        <v>1.603193569135634</v>
+        <v>8.015967845678176</v>
       </c>
       <c r="H8">
-        <v>6.956057632657537</v>
+        <v>0.3811476307194428</v>
       </c>
       <c r="I8">
-        <v>8.015967845678176</v>
+        <v>0.5931296733235703</v>
       </c>
       <c r="J8">
-        <v>-0.08526031927196791</v>
+        <v>1.905738153597216</v>
       </c>
       <c r="K8">
-        <v>0.2973238763440369</v>
+        <v>2.965648366617851</v>
       </c>
     </row>
   </sheetData>
